--- a/biology/Botanique/Nymphoides/Nymphoides.xlsx
+++ b/biology/Botanique/Nymphoides/Nymphoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphoides est un genre de plantes dicotylédones de la famille des Menyanthaceae. Ce sont des plantes herbacées, aquatiques ou semi-aquatiques.
 Le nom du genre fait référence à leur ressemblance avec les Nymphaeas. Ce sont des plantes  herbacées, pérennes, aquatiques, à racines immergées et à feuilles flottantes qui possèdent de petites fleurs au-dessus de la surface de l'eau. Les fleurs sont sympétales, le plus souvent divisées en cinq lobes. Les pétales sont jaunes ou blancs et peuvent être ornés d'ailes latérales ou recouverts de petits poils. L'inflorescence est organisée soit en cluster d'ombelles, soit en grappes lâches.
@@ -513,9 +525,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nymphoides indica a longtemps été considérée comme pantropicale, mais des analyses moléculaires ont mis en évidence si Nymphoides indica est asiatico-océanienne, il existe quatre autres groupes d'espèces issus d'événements d'allopolyploïdisation[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nymphoides indica a longtemps été considérée comme pantropicale, mais des analyses moléculaires ont mis en évidence si Nymphoides indica est asiatico-océanienne, il existe quatre autres groupes d'espèces issus d'événements d'allopolyploïdisation, :
 un clade d'espèces nord-américaines N. aquatica et N. cordata
 un clade d'espèces néotropicales : N. fallax, N. grayana et N. humboldtiana
 l'espèce australienne N. montana
@@ -547,15 +561,51 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Nymphoides aquatica (J.F. Gmel.) Kuntze
 Nymphoides cordata (Ell.) Fern.
 Nymphoides indica (L.) Kuntze
-Nymphoides peltata (Gmel.) Kuntze (localement invasif[3])
-Espèces
-Régions tropicales:
+Nymphoides peltata (Gmel.) Kuntze (localement invasif)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nymphoides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nymphoides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Régions tropicales:
 Nymphoides indica (L.) Kuntze
 Afrique:
 Nymphoides bosseri A.Raynal
